--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nlgn2-Nrxn1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nlgn2-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.580781333333334</v>
+        <v>3.258986</v>
       </c>
       <c r="H2">
-        <v>7.742344000000001</v>
+        <v>9.776958</v>
       </c>
       <c r="I2">
-        <v>0.09250274102763281</v>
+        <v>0.0928452675546778</v>
       </c>
       <c r="J2">
-        <v>0.09250274102763281</v>
+        <v>0.09284526755467781</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +561,22 @@
         <v>0.657545</v>
       </c>
       <c r="O2">
-        <v>0.3167322406056181</v>
+        <v>0.8459226744507667</v>
       </c>
       <c r="P2">
-        <v>0.3167322406056181</v>
+        <v>0.8459226744507669</v>
       </c>
       <c r="Q2">
-        <v>0.5656599539422223</v>
+        <v>0.7143099831233335</v>
       </c>
       <c r="R2">
-        <v>5.090939585480001</v>
+        <v>6.428789848110001</v>
       </c>
       <c r="S2">
-        <v>0.02929860042784337</v>
+        <v>0.07853991703995004</v>
       </c>
       <c r="T2">
-        <v>0.02929860042784337</v>
+        <v>0.07853991703995007</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.580781333333334</v>
+        <v>3.258986</v>
       </c>
       <c r="H3">
-        <v>7.742344000000001</v>
+        <v>9.776958</v>
       </c>
       <c r="I3">
-        <v>0.09250274102763281</v>
+        <v>0.0928452675546778</v>
       </c>
       <c r="J3">
-        <v>0.09250274102763281</v>
+        <v>0.09284526755467781</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,33 +617,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4728276666666666</v>
+        <v>0.03648100000000001</v>
       </c>
       <c r="N3">
-        <v>1.418483</v>
+        <v>0.109443</v>
       </c>
       <c r="O3">
-        <v>0.6832677593943819</v>
+        <v>0.1407969268413801</v>
       </c>
       <c r="P3">
-        <v>0.6832677593943819</v>
+        <v>0.1407969268413801</v>
       </c>
       <c r="Q3">
-        <v>1.220264816016889</v>
+        <v>0.118891068266</v>
       </c>
       <c r="R3">
-        <v>10.982383344152</v>
+        <v>1.070019614394</v>
       </c>
       <c r="S3">
-        <v>0.06320414059978943</v>
+        <v>0.01307232834346433</v>
       </c>
       <c r="T3">
-        <v>0.06320414059978943</v>
+        <v>0.01307232834346434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.80139666666667</v>
+        <v>3.258986</v>
       </c>
       <c r="H4">
-        <v>62.40418999999999</v>
+        <v>9.776958</v>
       </c>
       <c r="I4">
-        <v>0.7455828140172009</v>
+        <v>0.0928452675546778</v>
       </c>
       <c r="J4">
-        <v>0.7455828140172009</v>
+        <v>0.09284526755467781</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2191816666666667</v>
+        <v>0.003441</v>
       </c>
       <c r="N4">
-        <v>0.657545</v>
+        <v>0.010323</v>
       </c>
       <c r="O4">
-        <v>0.3167322406056181</v>
+        <v>0.0132803987078531</v>
       </c>
       <c r="P4">
-        <v>0.3167322406056181</v>
+        <v>0.0132803987078531</v>
       </c>
       <c r="Q4">
-        <v>4.559284790394445</v>
+        <v>0.011214170826</v>
       </c>
       <c r="R4">
-        <v>41.03356311355</v>
+        <v>0.100927537434</v>
       </c>
       <c r="S4">
-        <v>0.2361501152407099</v>
+        <v>0.001233022171263418</v>
       </c>
       <c r="T4">
-        <v>0.2361501152407099</v>
+        <v>0.001233022171263418</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>62.40418999999999</v>
       </c>
       <c r="I5">
-        <v>0.7455828140172009</v>
+        <v>0.5926110879358332</v>
       </c>
       <c r="J5">
-        <v>0.7455828140172009</v>
+        <v>0.5926110879358333</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4728276666666666</v>
+        <v>0.2191816666666667</v>
       </c>
       <c r="N5">
-        <v>1.418483</v>
+        <v>0.657545</v>
       </c>
       <c r="O5">
-        <v>0.6832677593943819</v>
+        <v>0.8459226744507667</v>
       </c>
       <c r="P5">
-        <v>0.6832677593943819</v>
+        <v>0.8459226744507669</v>
       </c>
       <c r="Q5">
-        <v>9.835475849307777</v>
+        <v>4.559284790394445</v>
       </c>
       <c r="R5">
-        <v>88.51928264376998</v>
+        <v>41.03356311355</v>
       </c>
       <c r="S5">
-        <v>0.509432698776491</v>
+        <v>0.5013031564158585</v>
       </c>
       <c r="T5">
-        <v>0.509432698776491</v>
+        <v>0.5013031564158587</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,51 +785,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.212175</v>
+        <v>20.80139666666667</v>
       </c>
       <c r="H6">
-        <v>12.636525</v>
+        <v>62.40418999999999</v>
       </c>
       <c r="I6">
-        <v>0.150976655075544</v>
+        <v>0.5926110879358332</v>
       </c>
       <c r="J6">
-        <v>0.150976655075544</v>
+        <v>0.5926110879358333</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2191816666666667</v>
+        <v>0.03648100000000001</v>
       </c>
       <c r="N6">
-        <v>0.657545</v>
+        <v>0.109443</v>
       </c>
       <c r="O6">
-        <v>0.3167322406056181</v>
+        <v>0.1407969268413801</v>
       </c>
       <c r="P6">
-        <v>0.3167322406056181</v>
+        <v>0.1407969268413801</v>
       </c>
       <c r="Q6">
-        <v>0.9232315367916668</v>
+        <v>0.7588557517966668</v>
       </c>
       <c r="R6">
-        <v>8.309083831125001</v>
+        <v>6.82970176617</v>
       </c>
       <c r="S6">
-        <v>0.04781917424121861</v>
+        <v>0.08343781999349217</v>
       </c>
       <c r="T6">
-        <v>0.04781917424121861</v>
+        <v>0.0834378199934922</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.212175</v>
+        <v>20.80139666666667</v>
       </c>
       <c r="H7">
-        <v>12.636525</v>
+        <v>62.40418999999999</v>
       </c>
       <c r="I7">
-        <v>0.150976655075544</v>
+        <v>0.5926110879358332</v>
       </c>
       <c r="J7">
-        <v>0.150976655075544</v>
+        <v>0.5926110879358333</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,33 +865,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4728276666666666</v>
+        <v>0.003441</v>
       </c>
       <c r="N7">
-        <v>1.418483</v>
+        <v>0.010323</v>
       </c>
       <c r="O7">
-        <v>0.6832677593943819</v>
+        <v>0.0132803987078531</v>
       </c>
       <c r="P7">
-        <v>0.6832677593943819</v>
+        <v>0.0132803987078531</v>
       </c>
       <c r="Q7">
-        <v>1.991632876841667</v>
+        <v>0.07157760593</v>
       </c>
       <c r="R7">
-        <v>17.924695891575</v>
+        <v>0.6441984533699999</v>
       </c>
       <c r="S7">
-        <v>0.1031574808343254</v>
+        <v>0.007870111526482456</v>
       </c>
       <c r="T7">
-        <v>0.1031574808343254</v>
+        <v>0.007870111526482459</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.305159</v>
+        <v>10.70406433333333</v>
       </c>
       <c r="H8">
-        <v>0.915477</v>
+        <v>32.112193</v>
       </c>
       <c r="I8">
-        <v>0.01093778987962227</v>
+        <v>0.3049481393755043</v>
       </c>
       <c r="J8">
-        <v>0.01093778987962227</v>
+        <v>0.3049481393755044</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,27 +933,27 @@
         <v>0.657545</v>
       </c>
       <c r="O8">
-        <v>0.3167322406056181</v>
+        <v>0.8459226744507667</v>
       </c>
       <c r="P8">
-        <v>0.3167322406056181</v>
+        <v>0.8459226744507669</v>
       </c>
       <c r="Q8">
-        <v>0.06688525821833334</v>
+        <v>2.346134660687223</v>
       </c>
       <c r="R8">
-        <v>0.6019673239650001</v>
+        <v>21.11521194618501</v>
       </c>
       <c r="S8">
-        <v>0.003464350695846215</v>
+        <v>0.2579625456293118</v>
       </c>
       <c r="T8">
-        <v>0.003464350695846215</v>
+        <v>0.2579625456293119</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.305159</v>
+        <v>10.70406433333333</v>
       </c>
       <c r="H9">
-        <v>0.915477</v>
+        <v>32.112193</v>
       </c>
       <c r="I9">
-        <v>0.01093778987962227</v>
+        <v>0.3049481393755043</v>
       </c>
       <c r="J9">
-        <v>0.01093778987962227</v>
+        <v>0.3049481393755044</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,276 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.4728276666666666</v>
+        <v>0.03648100000000001</v>
       </c>
       <c r="N9">
-        <v>1.418483</v>
+        <v>0.109443</v>
       </c>
       <c r="O9">
-        <v>0.6832677593943819</v>
+        <v>0.1407969268413801</v>
       </c>
       <c r="P9">
-        <v>0.6832677593943819</v>
+        <v>0.1407969268413801</v>
       </c>
       <c r="Q9">
-        <v>0.1442876179323333</v>
+        <v>0.3904949709443334</v>
       </c>
       <c r="R9">
-        <v>1.298588561391</v>
+        <v>3.514454738499001</v>
       </c>
       <c r="S9">
-        <v>0.007473439183776054</v>
+        <v>0.04293576087006786</v>
       </c>
       <c r="T9">
-        <v>0.007473439183776054</v>
+        <v>0.04293576087006788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.70406433333333</v>
+      </c>
+      <c r="H10">
+        <v>32.112193</v>
+      </c>
+      <c r="I10">
+        <v>0.3049481393755043</v>
+      </c>
+      <c r="J10">
+        <v>0.3049481393755044</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.003441</v>
+      </c>
+      <c r="N10">
+        <v>0.010323</v>
+      </c>
+      <c r="O10">
+        <v>0.0132803987078531</v>
+      </c>
+      <c r="P10">
+        <v>0.0132803987078531</v>
+      </c>
+      <c r="Q10">
+        <v>0.03683268537100001</v>
+      </c>
+      <c r="R10">
+        <v>0.3314941683390001</v>
+      </c>
+      <c r="S10">
+        <v>0.004049832876124653</v>
+      </c>
+      <c r="T10">
+        <v>0.004049832876124655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3368143333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.010443</v>
+      </c>
+      <c r="I11">
+        <v>0.009595505133984546</v>
+      </c>
+      <c r="J11">
+        <v>0.00959550513398455</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2191816666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.657545</v>
+      </c>
+      <c r="O11">
+        <v>0.8459226744507667</v>
+      </c>
+      <c r="P11">
+        <v>0.8459226744507669</v>
+      </c>
+      <c r="Q11">
+        <v>0.07382352693722223</v>
+      </c>
+      <c r="R11">
+        <v>0.664411742435</v>
+      </c>
+      <c r="S11">
+        <v>0.00811705536564627</v>
+      </c>
+      <c r="T11">
+        <v>0.008117055365646275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3368143333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.010443</v>
+      </c>
+      <c r="I12">
+        <v>0.009595505133984546</v>
+      </c>
+      <c r="J12">
+        <v>0.00959550513398455</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.03648100000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.109443</v>
+      </c>
+      <c r="O12">
+        <v>0.1407969268413801</v>
+      </c>
+      <c r="P12">
+        <v>0.1407969268413801</v>
+      </c>
+      <c r="Q12">
+        <v>0.01228732369433333</v>
+      </c>
+      <c r="R12">
+        <v>0.110585913249</v>
+      </c>
+      <c r="S12">
+        <v>0.001351017634355709</v>
+      </c>
+      <c r="T12">
+        <v>0.00135101763435571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3368143333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.010443</v>
+      </c>
+      <c r="I13">
+        <v>0.009595505133984546</v>
+      </c>
+      <c r="J13">
+        <v>0.00959550513398455</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.003441</v>
+      </c>
+      <c r="N13">
+        <v>0.010323</v>
+      </c>
+      <c r="O13">
+        <v>0.0132803987078531</v>
+      </c>
+      <c r="P13">
+        <v>0.0132803987078531</v>
+      </c>
+      <c r="Q13">
+        <v>0.001158978121</v>
+      </c>
+      <c r="R13">
+        <v>0.010430803089</v>
+      </c>
+      <c r="S13">
+        <v>0.0001274321339825661</v>
+      </c>
+      <c r="T13">
+        <v>0.0001274321339825662</v>
       </c>
     </row>
   </sheetData>
